--- a/public/post/resid.xlsx
+++ b/public/post/resid.xlsx
@@ -1534,10 +1534,10 @@
         <v>90</v>
       </c>
       <c r="C232">
-        <v>85.62043213607774</v>
+        <v>85.70681622782507</v>
       </c>
       <c r="D232">
-        <v>97.23950046184412</v>
+        <v>97.30423268962915</v>
       </c>
     </row>
     <row r="233">
@@ -1545,10 +1545,10 @@
         <v>86.59999999999999</v>
       </c>
       <c r="C233">
-        <v>84.06083176296411</v>
+        <v>84.09908839765785</v>
       </c>
       <c r="D233">
-        <v>96.84668813902489</v>
+        <v>96.88064221357945</v>
       </c>
     </row>
     <row r="234">
@@ -1556,10 +1556,10 @@
         <v>90</v>
       </c>
       <c r="C234">
-        <v>85.89364972231262</v>
+        <v>85.96500849023207</v>
       </c>
       <c r="D234">
-        <v>100.3083316785134</v>
+        <v>100.4384460785837</v>
       </c>
     </row>
     <row r="235">
@@ -1567,10 +1567,10 @@
         <v>85.2</v>
       </c>
       <c r="C235">
-        <v>86.46124525427472</v>
+        <v>86.4992016376785</v>
       </c>
       <c r="D235">
-        <v>102.0207789096432</v>
+        <v>102.0839528904396</v>
       </c>
     </row>
     <row r="236">
@@ -1578,640 +1578,640 @@
         <v>90.90000000000001</v>
       </c>
       <c r="C236">
-        <v>106.9634023836696</v>
+        <v>106.8036535522882</v>
       </c>
       <c r="D236">
-        <v>125.3339556249919</v>
+        <v>125.156389955694</v>
       </c>
     </row>
     <row r="237">
       <c r="B237">
-        <v>91.39148329276313</v>
+        <v>91.44836146561518</v>
       </c>
       <c r="C237">
-        <v>81.58156283592366</v>
+        <v>81.51911857831709</v>
       </c>
       <c r="D237">
-        <v>99.0347375845729</v>
+        <v>99.19680101745765</v>
       </c>
     </row>
     <row r="238">
       <c r="B238">
-        <v>90.39794806639476</v>
+        <v>90.48188456760335</v>
       </c>
       <c r="C238">
-        <v>74.20616799130441</v>
+        <v>74.20941328105523</v>
       </c>
       <c r="D238">
-        <v>92.25662765264498</v>
+        <v>92.34367380119056</v>
       </c>
     </row>
     <row r="239">
       <c r="B239">
-        <v>93.00318206377682</v>
+        <v>93.08560588879629</v>
       </c>
       <c r="C239">
-        <v>80.43819987603732</v>
+        <v>80.45007824741384</v>
       </c>
       <c r="D239">
-        <v>100.1219989945259</v>
+        <v>100.2689803654495</v>
       </c>
     </row>
     <row r="240">
       <c r="B240">
-        <v>94.17857305322124</v>
+        <v>94.21900822536772</v>
       </c>
       <c r="C240">
-        <v>76.62578228084264</v>
+        <v>76.55607006887476</v>
       </c>
       <c r="D240">
-        <v>96.99007582732466</v>
+        <v>97.0274156040808</v>
       </c>
     </row>
     <row r="241">
       <c r="B241">
-        <v>116.0048011535001</v>
+        <v>115.854755795461</v>
       </c>
       <c r="C241">
-        <v>80.49854512542842</v>
+        <v>80.60263551818761</v>
       </c>
       <c r="D241">
-        <v>102.5068802014172</v>
+        <v>102.5026149335215</v>
       </c>
     </row>
     <row r="242">
       <c r="B242">
-        <v>90.23688565861941</v>
+        <v>90.24201152265938</v>
       </c>
       <c r="C242">
-        <v>75.71408324503564</v>
+        <v>75.70652590510252</v>
       </c>
       <c r="D242">
-        <v>98.04770066530283</v>
+        <v>98.03126202281752</v>
       </c>
     </row>
     <row r="243">
       <c r="B243">
-        <v>83.12131379340549</v>
+        <v>83.13988766458795</v>
       </c>
       <c r="C243">
-        <v>79.18264942620276</v>
+        <v>79.27556591855877</v>
       </c>
       <c r="D243">
-        <v>103.025365747096</v>
+        <v>103.1105569760766</v>
       </c>
     </row>
     <row r="244">
       <c r="B244">
-        <v>90.1335279355641</v>
+        <v>90.20717923066408</v>
       </c>
       <c r="C244">
-        <v>78.94433658807277</v>
+        <v>79.03820059766996</v>
       </c>
       <c r="D244">
-        <v>104.5680943969483</v>
+        <v>104.7370073685279</v>
       </c>
     </row>
     <row r="245">
       <c r="B245">
-        <v>86.61514947096781</v>
+        <v>86.63946387331519</v>
       </c>
       <c r="C245">
-        <v>77.57859841633848</v>
+        <v>77.60680078320893</v>
       </c>
       <c r="D245">
-        <v>104.0699725062223</v>
+        <v>104.3135262446993</v>
       </c>
     </row>
     <row r="246">
       <c r="B246">
-        <v>91.29526781904615</v>
+        <v>91.36999506891364</v>
       </c>
       <c r="C246">
-        <v>79.24641496636851</v>
+        <v>79.52289342710479</v>
       </c>
       <c r="D246">
-        <v>107.300902880073</v>
+        <v>107.6524256858785</v>
       </c>
     </row>
     <row r="247">
       <c r="B247">
-        <v>86.71190677017603</v>
+        <v>86.71515747268705</v>
       </c>
       <c r="C247">
-        <v>79.73655009675609</v>
+        <v>79.83819803519957</v>
       </c>
       <c r="D247">
-        <v>109.1444200059242</v>
+        <v>109.3351828867791</v>
       </c>
     </row>
     <row r="248">
       <c r="B248">
-        <v>90.87785884735934</v>
+        <v>90.95365233627743</v>
       </c>
       <c r="C248">
-        <v>99.83767851351853</v>
+        <v>99.58625777615615</v>
       </c>
       <c r="D248">
-        <v>133.0411497364757</v>
+        <v>132.7587698582539</v>
       </c>
     </row>
     <row r="249">
       <c r="B249">
-        <v>91.4611039651065</v>
+        <v>91.57625600174484</v>
       </c>
       <c r="C249">
-        <v>75.56346246832749</v>
+        <v>75.6115270162296</v>
       </c>
       <c r="D249">
-        <v>106.4298566353673</v>
+        <v>106.4228539259874</v>
       </c>
     </row>
     <row r="250">
       <c r="B250">
-        <v>90.50993656662635</v>
+        <v>90.65327420637048</v>
       </c>
       <c r="C250">
-        <v>68.85239552391091</v>
+        <v>68.83922110645679</v>
       </c>
       <c r="D250">
-        <v>99.32772785992655</v>
+        <v>99.31684799204278</v>
       </c>
     </row>
     <row r="251">
       <c r="B251">
-        <v>93.00466009136414</v>
+        <v>93.14740143686171</v>
       </c>
       <c r="C251">
-        <v>74.39920909244665</v>
+        <v>74.52216489861594</v>
       </c>
       <c r="D251">
-        <v>107.2176118011399</v>
+        <v>107.4114813513514</v>
       </c>
     </row>
     <row r="252">
       <c r="B252">
-        <v>93.99365557084005</v>
+        <v>94.08969816412431</v>
       </c>
       <c r="C252">
-        <v>70.92042655002345</v>
+        <v>70.82736433743833</v>
       </c>
       <c r="D252">
-        <v>104.0255211762758</v>
+        <v>104.1046378499094</v>
       </c>
     </row>
     <row r="253">
       <c r="B253">
-        <v>116.088823552116</v>
+        <v>115.8505959497135</v>
       </c>
       <c r="C253">
-        <v>74.43857012904934</v>
+        <v>74.74512751748134</v>
       </c>
       <c r="D253">
-        <v>109.5879482785519</v>
+        <v>109.7783952551826</v>
       </c>
     </row>
     <row r="254">
       <c r="B254">
-        <v>90.55272891909829</v>
+        <v>90.53734609064762</v>
       </c>
       <c r="C254">
-        <v>70.13403370898595</v>
+        <v>70.02359472850728</v>
       </c>
       <c r="D254">
-        <v>105.0540391410407</v>
+        <v>105.19323655685</v>
       </c>
     </row>
     <row r="255">
       <c r="B255">
-        <v>83.66695030170679</v>
+        <v>83.66830286491882</v>
       </c>
       <c r="C255">
-        <v>73.21513788903435</v>
+        <v>73.39555877629846</v>
       </c>
       <c r="D255">
-        <v>110.0443268434531</v>
+        <v>110.1826477010146</v>
       </c>
     </row>
     <row r="256">
       <c r="B256">
-        <v>90.40647586840622</v>
+        <v>90.5317311797334</v>
       </c>
       <c r="C256">
-        <v>73.06943461848465</v>
+        <v>73.12231520052885</v>
       </c>
       <c r="D256">
-        <v>111.3206483999831</v>
+        <v>111.5918498040327</v>
       </c>
     </row>
     <row r="257">
       <c r="B257">
-        <v>86.96940188418121</v>
+        <v>87.07952146716151</v>
       </c>
       <c r="C257">
-        <v>71.59554194467226</v>
+        <v>71.768109835533</v>
       </c>
       <c r="D257">
-        <v>111.0326034268913</v>
+        <v>111.1361118363065</v>
       </c>
     </row>
     <row r="258">
       <c r="B258">
-        <v>91.5444002309529</v>
+        <v>91.68660299666441</v>
       </c>
       <c r="C258">
-        <v>73.43194722926015</v>
+        <v>73.41060459996491</v>
       </c>
       <c r="D258">
-        <v>114.4030377109516</v>
+        <v>114.5206603758296</v>
       </c>
     </row>
     <row r="259">
       <c r="B259">
-        <v>87.10328236878851</v>
+        <v>87.20213706273397</v>
       </c>
       <c r="C259">
-        <v>73.3618290581007</v>
+        <v>73.63802450323354</v>
       </c>
       <c r="D259">
-        <v>116.4912289899822</v>
+        <v>116.3008800091805</v>
       </c>
     </row>
     <row r="260">
       <c r="B260">
-        <v>91.08617631946439</v>
+        <v>91.22764110048578</v>
       </c>
       <c r="C260">
-        <v>93.02266179283907</v>
+        <v>92.43791726540073</v>
       </c>
       <c r="D260">
-        <v>140.7431858403909</v>
+        <v>140.542353755193</v>
       </c>
     </row>
     <row r="261">
       <c r="B261">
-        <v>91.5664550020948</v>
+        <v>91.73110435332988</v>
       </c>
       <c r="C261">
-        <v>69.63712160963922</v>
+        <v>69.67627097048634</v>
       </c>
       <c r="D261">
-        <v>114.0306778621965</v>
+        <v>113.8309934525511</v>
       </c>
     </row>
     <row r="262">
       <c r="B262">
-        <v>90.60333964192</v>
+        <v>90.78975392429003</v>
       </c>
       <c r="C262">
-        <v>63.26386394564784</v>
+        <v>63.2911683135714</v>
       </c>
       <c r="D262">
-        <v>106.582355855528</v>
+        <v>106.4429361878513</v>
       </c>
     </row>
     <row r="263">
       <c r="B263">
-        <v>93.04185099004536</v>
+        <v>93.22838877529215</v>
       </c>
       <c r="C263">
-        <v>68.67865977634972</v>
+        <v>68.77051457006461</v>
       </c>
       <c r="D263">
-        <v>114.3814511742315</v>
+        <v>114.556963206118</v>
       </c>
     </row>
     <row r="264">
       <c r="B264">
-        <v>93.88077456016595</v>
+        <v>94.02860831229896</v>
       </c>
       <c r="C264">
-        <v>65.24933127332727</v>
+        <v>65.30877670921755</v>
       </c>
       <c r="D264">
-        <v>111.0079955662498</v>
+        <v>111.0456812353995</v>
       </c>
     </row>
     <row r="265">
       <c r="B265">
-        <v>116.1784186454831</v>
+        <v>115.8872851209983</v>
       </c>
       <c r="C265">
-        <v>68.64329403514053</v>
+        <v>68.81564220844422</v>
       </c>
       <c r="D265">
-        <v>116.7640041610021</v>
+        <v>116.9996349819743</v>
       </c>
     </row>
     <row r="266">
       <c r="B266">
-        <v>90.76279710588327</v>
+        <v>90.72245413747115</v>
       </c>
       <c r="C266">
-        <v>64.3728252466636</v>
+        <v>64.23026442424289</v>
       </c>
       <c r="D266">
-        <v>112.2187685464309</v>
+        <v>112.3663106938534</v>
       </c>
     </row>
     <row r="267">
       <c r="B267">
-        <v>84.05919937867574</v>
+        <v>84.01913848817993</v>
       </c>
       <c r="C267">
-        <v>67.16651911477153</v>
+        <v>67.33837938118479</v>
       </c>
       <c r="D267">
-        <v>117.5654778826615</v>
+        <v>117.5582059180365</v>
       </c>
     </row>
     <row r="268">
       <c r="B268">
-        <v>90.63663856924917</v>
+        <v>90.78582711862471</v>
       </c>
       <c r="C268">
-        <v>66.95860951771309</v>
+        <v>67.07712418758995</v>
       </c>
       <c r="D268">
-        <v>118.6129880058411</v>
+        <v>118.8095093061224</v>
       </c>
     </row>
     <row r="269">
       <c r="B269">
-        <v>87.21566687864329</v>
+        <v>87.38117349250143</v>
       </c>
       <c r="C269">
-        <v>65.45591641199434</v>
+        <v>65.68955187582725</v>
       </c>
       <c r="D269">
-        <v>118.2513745121637</v>
+        <v>118.2969084784957</v>
       </c>
     </row>
     <row r="270">
       <c r="B270">
-        <v>91.7395153938441</v>
+        <v>91.92922303553185</v>
       </c>
       <c r="C270">
-        <v>67.0508779308891</v>
+        <v>67.32489038118361</v>
       </c>
       <c r="D270">
-        <v>121.694960891933</v>
+        <v>121.8550334897134</v>
       </c>
     </row>
     <row r="271">
       <c r="B271">
-        <v>87.35139986542384</v>
+        <v>87.51976647135427</v>
       </c>
       <c r="C271">
-        <v>67.23703647599072</v>
+        <v>67.38709658382619</v>
       </c>
       <c r="D271">
-        <v>123.9989068367459</v>
+        <v>123.9173891942312</v>
       </c>
     </row>
     <row r="272">
       <c r="B272">
-        <v>91.25572752667426</v>
+        <v>91.44585328660895</v>
       </c>
       <c r="C272">
-        <v>85.82716382165691</v>
+        <v>85.3333928381045</v>
       </c>
       <c r="D272">
-        <v>148.9070803785783</v>
+        <v>148.5462483902535</v>
       </c>
     </row>
     <row r="273">
       <c r="B273">
-        <v>91.67382639057446</v>
+        <v>91.87672828486221</v>
       </c>
       <c r="C273">
-        <v>63.61131734344075</v>
+        <v>63.55359089771701</v>
       </c>
       <c r="D273">
-        <v>121.8736399957797</v>
+        <v>121.4579800025652</v>
       </c>
     </row>
     <row r="274">
       <c r="B274">
-        <v>90.69250807342777</v>
+        <v>90.91036480617636</v>
       </c>
       <c r="C274">
-        <v>57.47713818536557</v>
+        <v>57.5943705456143</v>
       </c>
       <c r="D274">
-        <v>114.5394785107602</v>
+        <v>113.909445318136</v>
       </c>
     </row>
     <row r="275">
       <c r="B275">
-        <v>93.09750157805445</v>
+        <v>93.31575899583741</v>
       </c>
       <c r="C275">
-        <v>62.4612928393687</v>
+        <v>62.68653021400666</v>
       </c>
       <c r="D275">
-        <v>122.1374380349247</v>
+        <v>122.2203365490031</v>
       </c>
     </row>
     <row r="276">
       <c r="B276">
-        <v>93.82803020025918</v>
+        <v>94.01759058191733</v>
       </c>
       <c r="C276">
-        <v>59.20030868703485</v>
+        <v>59.1853106679239</v>
       </c>
       <c r="D276">
-        <v>118.3834880256662</v>
+        <v>118.5577480461352</v>
       </c>
     </row>
     <row r="277">
       <c r="B277">
-        <v>116.2762855494199</v>
+        <v>115.9526956682964</v>
       </c>
       <c r="C277">
-        <v>62.53231440169284</v>
+        <v>62.6065808842017</v>
       </c>
       <c r="D277">
-        <v>124.3940387636747</v>
+        <v>124.7068198203893</v>
       </c>
     </row>
     <row r="278">
       <c r="B278">
-        <v>90.91590656920212</v>
+        <v>90.85226320472613</v>
       </c>
       <c r="C278">
-        <v>58.1893949475898</v>
+        <v>58.22214638224787</v>
       </c>
       <c r="D278">
-        <v>119.6850516586724</v>
+        <v>119.8368432924578</v>
       </c>
     </row>
     <row r="279">
       <c r="B279">
-        <v>84.36553127561915</v>
+        <v>84.26482902115818</v>
       </c>
       <c r="C279">
-        <v>60.90755526454748</v>
+        <v>61.02948114440302</v>
       </c>
       <c r="D279">
-        <v>125.0780893578483</v>
+        <v>125.2442469441594</v>
       </c>
     </row>
     <row r="280">
       <c r="B280">
-        <v>90.83587820211966</v>
+        <v>90.98830037939877</v>
       </c>
       <c r="C280">
-        <v>60.69416284259618</v>
+        <v>60.66403864991692</v>
       </c>
       <c r="D280">
-        <v>126.2784314220245</v>
+        <v>126.6153695386226</v>
       </c>
     </row>
     <row r="281">
       <c r="B281">
-        <v>87.40939323671501</v>
+        <v>87.60305487636285</v>
       </c>
       <c r="C281">
-        <v>59.17860210773191</v>
+        <v>59.32550484666432</v>
       </c>
       <c r="D281">
-        <v>126.0000665338234</v>
+        <v>126.0284280644863</v>
       </c>
     </row>
     <row r="282">
       <c r="B282">
-        <v>91.90354943667231</v>
+        <v>92.12350677144595</v>
       </c>
       <c r="C282">
-        <v>60.66700906329803</v>
+        <v>60.86555787089448</v>
       </c>
       <c r="D282">
-        <v>129.6225277095521</v>
+        <v>129.7621599524474</v>
       </c>
     </row>
     <row r="283">
       <c r="B283">
-        <v>87.53107456498569</v>
+        <v>87.74375945432466</v>
       </c>
       <c r="C283">
-        <v>60.50181730710163</v>
+        <v>60.7128819273694</v>
       </c>
       <c r="D283">
-        <v>132.172019215987</v>
+        <v>131.9049065084114</v>
       </c>
     </row>
     <row r="284">
       <c r="B284">
-        <v>91.39960631750552</v>
+        <v>91.62375930448319</v>
       </c>
       <c r="C284">
-        <v>78.32688914165499</v>
+        <v>77.58646104601318</v>
       </c>
       <c r="D284">
-        <v>157.5062053440188</v>
+        <v>157.2482303862902</v>
       </c>
     </row>
     <row r="285">
       <c r="B285">
-        <v>91.7788372086867</v>
+        <v>92.00991918825748</v>
       </c>
       <c r="C285">
-        <v>57.1115429830848</v>
+        <v>57.12944209393283</v>
       </c>
       <c r="D285">
-        <v>130.1058002894592</v>
+        <v>129.5907530401698</v>
       </c>
     </row>
     <row r="286">
       <c r="B286">
-        <v>90.77886923866473</v>
+        <v>91.01965151211454</v>
       </c>
       <c r="C286">
-        <v>51.44316651236292</v>
+        <v>51.29789518227791</v>
       </c>
       <c r="D286">
-        <v>122.6012873305205</v>
+        <v>121.7616991454387</v>
       </c>
     </row>
     <row r="287">
       <c r="B287">
-        <v>93.16479330379873</v>
+        <v>93.4059948289606</v>
       </c>
       <c r="C287">
-        <v>56.12561350720959</v>
+        <v>56.15861139453521</v>
       </c>
       <c r="D287">
-        <v>130.5053981524848</v>
+        <v>130.2908261752733</v>
       </c>
     </row>
     <row r="288">
       <c r="B288">
-        <v>93.81818762332597</v>
+        <v>94.03924249208856</v>
       </c>
       <c r="C288">
-        <v>52.90658801481832</v>
+        <v>52.95471968581428</v>
       </c>
       <c r="D288">
-        <v>126.353391764009</v>
+        <v>126.3325155073439</v>
       </c>
     </row>
     <row r="289">
       <c r="B289">
-        <v>116.3838111266966</v>
+        <v>116.0399182325616</v>
       </c>
       <c r="C289">
-        <v>55.96171279969646</v>
+        <v>56.03344523816472</v>
       </c>
       <c r="D289">
-        <v>132.8323100353339</v>
+        <v>132.8900449012627</v>
       </c>
     </row>
     <row r="290">
       <c r="B290">
-        <v>91.03719666277253</v>
+        <v>90.95330995850497</v>
       </c>
       <c r="C290">
-        <v>51.71587119293523</v>
+        <v>51.87396738508654</v>
       </c>
       <c r="D290">
-        <v>127.5954596966318</v>
+        <v>127.9229392883801</v>
       </c>
     </row>
     <row r="291">
       <c r="B291">
-        <v>84.63135781944199</v>
+        <v>84.44836575726291</v>
       </c>
       <c r="C291">
-        <v>54.31140732283917</v>
+        <v>54.49680692473092</v>
       </c>
       <c r="D291">
-        <v>133.3676529500304</v>
+        <v>133.4402691256842</v>
       </c>
     </row>
     <row r="292">
       <c r="B292">
-        <v>91.01345387371559</v>
+        <v>91.15436759173505</v>
       </c>
     </row>
     <row r="293">
       <c r="B293">
-        <v>87.57355093561768</v>
+        <v>87.77612398691871</v>
       </c>
     </row>
     <row r="294">
       <c r="B294">
-        <v>92.04835180745573</v>
+        <v>92.28557602449395</v>
       </c>
     </row>
     <row r="295">
       <c r="B295">
-        <v>87.6727623114636</v>
+        <v>87.91245487001358</v>
       </c>
     </row>
     <row r="296">
       <c r="B296">
-        <v>91.52607649776708</v>
+        <v>91.77325386072761</v>
       </c>
     </row>
   </sheetData>
